--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2615.418339757847</v>
+        <v>2712.81255246668</v>
       </c>
       <c r="AB2" t="n">
-        <v>3578.530756570638</v>
+        <v>3711.789815128289</v>
       </c>
       <c r="AC2" t="n">
-        <v>3237.000803662863</v>
+        <v>3357.541804702029</v>
       </c>
       <c r="AD2" t="n">
-        <v>2615418.339757847</v>
+        <v>2712812.55246668</v>
       </c>
       <c r="AE2" t="n">
-        <v>3578530.756570639</v>
+        <v>3711789.815128289</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.978494841368934e-07</v>
+        <v>1.84628279704646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.228125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3237000.803662863</v>
+        <v>3357541.804702029</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>871.3711827504222</v>
+        <v>920.0683338591144</v>
       </c>
       <c r="AB3" t="n">
-        <v>1192.248494422598</v>
+        <v>1258.878084936193</v>
       </c>
       <c r="AC3" t="n">
-        <v>1078.461971446176</v>
+        <v>1138.732527356372</v>
       </c>
       <c r="AD3" t="n">
-        <v>871371.1827504223</v>
+        <v>920068.3338591144</v>
       </c>
       <c r="AE3" t="n">
-        <v>1192248.494422599</v>
+        <v>1258878.084936193</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.870530129474159e-06</v>
+        <v>3.460970471305513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.123958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1078461.971446176</v>
+        <v>1138732.527356372</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>629.5276785106987</v>
+        <v>678.2247401108397</v>
       </c>
       <c r="AB4" t="n">
-        <v>861.3475425394087</v>
+        <v>927.9770105834556</v>
       </c>
       <c r="AC4" t="n">
-        <v>779.1417419883155</v>
+        <v>839.4121871172842</v>
       </c>
       <c r="AD4" t="n">
-        <v>629527.6785106987</v>
+        <v>678224.7401108397</v>
       </c>
       <c r="AE4" t="n">
-        <v>861347.5425394087</v>
+        <v>927977.0105834556</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.202854855331446e-06</v>
+        <v>4.075858221549934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.897916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>779141.7419883155</v>
+        <v>839412.1871172843</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>543.2193459127263</v>
+        <v>579.7208964077402</v>
       </c>
       <c r="AB5" t="n">
-        <v>743.2566742239594</v>
+        <v>793.1997059459935</v>
       </c>
       <c r="AC5" t="n">
-        <v>672.3213004033181</v>
+        <v>717.4978392732866</v>
       </c>
       <c r="AD5" t="n">
-        <v>543219.3459127264</v>
+        <v>579720.8964077402</v>
       </c>
       <c r="AE5" t="n">
-        <v>743256.6742239594</v>
+        <v>793199.7059459935</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.355304082074582e-06</v>
+        <v>4.357929204432032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.452083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>672321.3004033181</v>
+        <v>717497.8392732865</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>533.3793846262606</v>
+        <v>569.8809351212745</v>
       </c>
       <c r="AB6" t="n">
-        <v>729.793205083363</v>
+        <v>779.7362368053971</v>
       </c>
       <c r="AC6" t="n">
-        <v>660.1427658614025</v>
+        <v>705.3193047313709</v>
       </c>
       <c r="AD6" t="n">
-        <v>533379.3846262606</v>
+        <v>569880.9351212746</v>
       </c>
       <c r="AE6" t="n">
-        <v>729793.205083363</v>
+        <v>779736.2368053971</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.375873786352843e-06</v>
+        <v>4.3959885427922e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.395833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>660142.7658614025</v>
+        <v>705319.304731371</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>535.6240807904843</v>
+        <v>572.1256312854982</v>
       </c>
       <c r="AB7" t="n">
-        <v>732.8644974042596</v>
+        <v>782.8075291262937</v>
       </c>
       <c r="AC7" t="n">
-        <v>662.9209383537784</v>
+        <v>708.0974772237471</v>
       </c>
       <c r="AD7" t="n">
-        <v>535624.0807904843</v>
+        <v>572125.6312854983</v>
       </c>
       <c r="AE7" t="n">
-        <v>732864.4974042596</v>
+        <v>782807.5291262937</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.376019670780348e-06</v>
+        <v>4.396258467177733e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.395833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>662920.9383537784</v>
+        <v>708097.4772237471</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1552.450667256602</v>
+        <v>1634.625970476479</v>
       </c>
       <c r="AB2" t="n">
-        <v>2124.13149223019</v>
+        <v>2236.567367414143</v>
       </c>
       <c r="AC2" t="n">
-        <v>1921.407363849014</v>
+        <v>2023.112516910151</v>
       </c>
       <c r="AD2" t="n">
-        <v>1552450.667256602</v>
+        <v>1634625.970476479</v>
       </c>
       <c r="AE2" t="n">
-        <v>2124131.49223019</v>
+        <v>2236567.367414143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.318396927505436e-06</v>
+        <v>2.513068015185524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.92395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1921407.363849014</v>
+        <v>2023112.516910152</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>652.2752698096801</v>
+        <v>699.1595261399571</v>
       </c>
       <c r="AB3" t="n">
-        <v>892.4718005075761</v>
+        <v>956.6209084060705</v>
       </c>
       <c r="AC3" t="n">
-        <v>807.2955444591713</v>
+        <v>865.3223515336718</v>
       </c>
       <c r="AD3" t="n">
-        <v>652275.2698096802</v>
+        <v>699159.526139957</v>
       </c>
       <c r="AE3" t="n">
-        <v>892471.8005075761</v>
+        <v>956620.9084060705</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.136962052824744e-06</v>
+        <v>4.073379475163349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.35625</v>
       </c>
       <c r="AH3" t="n">
-        <v>807295.5444591714</v>
+        <v>865322.3515336718</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.9090958132697</v>
+        <v>540.2855730659929</v>
       </c>
       <c r="AB4" t="n">
-        <v>690.8388999089319</v>
+        <v>739.2425567861357</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.9062049001083</v>
+        <v>668.6902846999109</v>
       </c>
       <c r="AD4" t="n">
-        <v>504909.0958132697</v>
+        <v>540285.5730659929</v>
       </c>
       <c r="AE4" t="n">
-        <v>690838.8999089319</v>
+        <v>739242.5567861357</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.396687454866509e-06</v>
+        <v>4.568456175499233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.559375</v>
       </c>
       <c r="AH4" t="n">
-        <v>624906.2049001083</v>
+        <v>668690.2846999109</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>500.1281568141709</v>
+        <v>535.5046340668943</v>
       </c>
       <c r="AB5" t="n">
-        <v>684.2974082502225</v>
+        <v>732.7010651274262</v>
       </c>
       <c r="AC5" t="n">
-        <v>618.9890240242649</v>
+        <v>662.7731038240676</v>
       </c>
       <c r="AD5" t="n">
-        <v>500128.1568141709</v>
+        <v>535504.6340668943</v>
       </c>
       <c r="AE5" t="n">
-        <v>684297.4082502224</v>
+        <v>732701.0651274262</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.411929910186798e-06</v>
+        <v>4.597510647744395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.517708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>618989.024024265</v>
+        <v>662773.1038240675</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.0148796015624</v>
+        <v>513.868649566326</v>
       </c>
       <c r="AB2" t="n">
-        <v>645.8315820976746</v>
+        <v>703.0977566214784</v>
       </c>
       <c r="AC2" t="n">
-        <v>584.1943223325902</v>
+        <v>635.9950935334231</v>
       </c>
       <c r="AD2" t="n">
-        <v>472014.8796015624</v>
+        <v>513868.649566326</v>
       </c>
       <c r="AE2" t="n">
-        <v>645831.5820976746</v>
+        <v>703097.7566214785</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.321893691940959e-06</v>
+        <v>4.945025917442e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.555208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>584194.3223325902</v>
+        <v>635995.093533423</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>454.7818111956346</v>
+        <v>496.464988959806</v>
       </c>
       <c r="AB3" t="n">
-        <v>622.2525376353634</v>
+        <v>679.2853003843203</v>
       </c>
       <c r="AC3" t="n">
-        <v>562.8656287803653</v>
+        <v>614.455264698547</v>
       </c>
       <c r="AD3" t="n">
-        <v>454781.8111956347</v>
+        <v>496464.988959806</v>
       </c>
       <c r="AE3" t="n">
-        <v>622252.5376353634</v>
+        <v>679285.3003843203</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.375613164506172e-06</v>
+        <v>5.059434335462308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.384374999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>562865.6287803653</v>
+        <v>614455.264698547</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>715.2255226923</v>
+        <v>769.9991620687301</v>
       </c>
       <c r="AB2" t="n">
-        <v>978.6031136707306</v>
+        <v>1053.546823507988</v>
       </c>
       <c r="AC2" t="n">
-        <v>885.2066059800917</v>
+        <v>952.9977933346383</v>
       </c>
       <c r="AD2" t="n">
-        <v>715225.5226923</v>
+        <v>769999.1620687301</v>
       </c>
       <c r="AE2" t="n">
-        <v>978603.1136707306</v>
+        <v>1053546.823507988</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.948374289229169e-06</v>
+        <v>3.955873421816922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.613541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>885206.6059800917</v>
+        <v>952997.7933346384</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.9311722023322</v>
+        <v>500.7330155325619</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.1933881878423</v>
+        <v>685.1250026332082</v>
       </c>
       <c r="AC3" t="n">
-        <v>565.5258086836251</v>
+        <v>619.7376339608746</v>
       </c>
       <c r="AD3" t="n">
-        <v>456931.1722023322</v>
+        <v>500733.0155325619</v>
       </c>
       <c r="AE3" t="n">
-        <v>625193.3881878423</v>
+        <v>685125.0026332082</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.426365567230074e-06</v>
+        <v>4.926360972877846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>565525.8086836251</v>
+        <v>619737.6339608746</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.1388466560376</v>
+        <v>502.9406899862674</v>
       </c>
       <c r="AB4" t="n">
-        <v>628.2140257711251</v>
+        <v>688.1456402164912</v>
       </c>
       <c r="AC4" t="n">
-        <v>568.2581608554509</v>
+        <v>622.4699861327005</v>
       </c>
       <c r="AD4" t="n">
-        <v>459138.8466560376</v>
+        <v>502940.6899862674</v>
       </c>
       <c r="AE4" t="n">
-        <v>628214.0257711251</v>
+        <v>688145.6402164912</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.428459900433314e-06</v>
+        <v>4.930613193357722e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.910416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>568258.1608554509</v>
+        <v>622469.9861327005</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>462.4639033911602</v>
+        <v>502.5646052331136</v>
       </c>
       <c r="AB2" t="n">
-        <v>632.7635150872701</v>
+        <v>687.6310644655376</v>
       </c>
       <c r="AC2" t="n">
-        <v>572.3734532965115</v>
+        <v>622.0045207692065</v>
       </c>
       <c r="AD2" t="n">
-        <v>462463.9033911602</v>
+        <v>502564.6052331136</v>
       </c>
       <c r="AE2" t="n">
-        <v>632763.5150872701</v>
+        <v>687631.0644655377</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.273663011064079e-06</v>
+        <v>5.06300342459228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.012500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>572373.4532965114</v>
+        <v>622004.5207692065</v>
       </c>
     </row>
     <row r="3">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.7036077270184</v>
+        <v>506.8043095689717</v>
       </c>
       <c r="AB3" t="n">
-        <v>638.5644656021457</v>
+        <v>693.4320149804133</v>
       </c>
       <c r="AC3" t="n">
-        <v>577.6207692359325</v>
+        <v>627.2518367086275</v>
       </c>
       <c r="AD3" t="n">
-        <v>466703.6077270184</v>
+        <v>506804.3095689717</v>
       </c>
       <c r="AE3" t="n">
-        <v>638564.4656021456</v>
+        <v>693432.0149804134</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.273663011064079e-06</v>
+        <v>5.06300342459228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.012500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>577620.7692359325</v>
+        <v>627251.8367086275</v>
       </c>
     </row>
   </sheetData>
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1757.724088934565</v>
+        <v>1840.779360373136</v>
       </c>
       <c r="AB2" t="n">
-        <v>2404.995643794202</v>
+        <v>2518.635530316429</v>
       </c>
       <c r="AC2" t="n">
-        <v>2175.466234983068</v>
+        <v>2278.260490230196</v>
       </c>
       <c r="AD2" t="n">
-        <v>1757724.088934565</v>
+        <v>1840779.360373136</v>
       </c>
       <c r="AE2" t="n">
-        <v>2404995.643794202</v>
+        <v>2518635.530316429</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.235512987421378e-06</v>
+        <v>2.336063068727995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2175466.234983068</v>
+        <v>2278260.490230197</v>
       </c>
     </row>
     <row r="3">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.603452151074</v>
+        <v>748.1123734614413</v>
       </c>
       <c r="AB3" t="n">
-        <v>958.5965516760007</v>
+        <v>1023.600353758529</v>
       </c>
       <c r="AC3" t="n">
-        <v>867.1094421827526</v>
+        <v>925.9093726279339</v>
       </c>
       <c r="AD3" t="n">
-        <v>700603.452151074</v>
+        <v>748112.3734614413</v>
       </c>
       <c r="AE3" t="n">
-        <v>958596.5516760007</v>
+        <v>1023600.353758529</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.066766005710691e-06</v>
+        <v>3.907766075142496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.537500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>867109.4421827525</v>
+        <v>925909.3726279339</v>
       </c>
     </row>
     <row r="4">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>525.7095064808949</v>
+        <v>561.426538318242</v>
       </c>
       <c r="AB4" t="n">
-        <v>719.2989394337309</v>
+        <v>768.1685581178251</v>
       </c>
       <c r="AC4" t="n">
-        <v>650.650058196577</v>
+        <v>694.8556290624015</v>
       </c>
       <c r="AD4" t="n">
-        <v>525709.5064808949</v>
+        <v>561426.5383182421</v>
       </c>
       <c r="AE4" t="n">
-        <v>719298.9394337309</v>
+        <v>768168.5581178251</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.364389882356199e-06</v>
+        <v>4.470502488018505e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>650650.058196577</v>
+        <v>694855.6290624015</v>
       </c>
     </row>
     <row r="5">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>509.3717762823332</v>
+        <v>544.9182159190881</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.944936206272</v>
+        <v>745.5811431155189</v>
       </c>
       <c r="AC5" t="n">
-        <v>630.4294896631061</v>
+        <v>674.4239252462797</v>
       </c>
       <c r="AD5" t="n">
-        <v>509371.7762823332</v>
+        <v>544918.2159190881</v>
       </c>
       <c r="AE5" t="n">
-        <v>696944.936206272</v>
+        <v>745581.1431155188</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.401181577660116e-06</v>
+        <v>4.540066888806193e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.488541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>630429.489663106</v>
+        <v>674423.9252462797</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.1287059716093</v>
+        <v>510.412402765376</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.6190802419513</v>
+        <v>698.3687672695713</v>
       </c>
       <c r="AC2" t="n">
-        <v>583.0975399522202</v>
+        <v>631.7174322880837</v>
       </c>
       <c r="AD2" t="n">
-        <v>471128.7059716093</v>
+        <v>510412.402765376</v>
       </c>
       <c r="AE2" t="n">
-        <v>644619.0802419514</v>
+        <v>698368.7672695713</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.173433874295817e-06</v>
+        <v>4.982742229588022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>583097.5399522203</v>
+        <v>631717.4322880837</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1076.250348124256</v>
+        <v>1133.141550111521</v>
       </c>
       <c r="AB2" t="n">
-        <v>1472.573207117939</v>
+        <v>1550.414259539609</v>
       </c>
       <c r="AC2" t="n">
-        <v>1332.03288700008</v>
+        <v>1402.444898629228</v>
       </c>
       <c r="AD2" t="n">
-        <v>1076250.348124256</v>
+        <v>1133141.550111521</v>
       </c>
       <c r="AE2" t="n">
-        <v>1472573.207117939</v>
+        <v>1550414.259539609</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.601076675652204e-06</v>
+        <v>3.138088157504043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.11666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1332032.88700008</v>
+        <v>1402444.898629228</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>507.436767949583</v>
+        <v>552.9325897616394</v>
       </c>
       <c r="AB3" t="n">
-        <v>694.2973724388604</v>
+        <v>756.5467629761179</v>
       </c>
       <c r="AC3" t="n">
-        <v>628.0346056657771</v>
+        <v>684.343001737727</v>
       </c>
       <c r="AD3" t="n">
-        <v>507436.7679495831</v>
+        <v>552932.5897616394</v>
       </c>
       <c r="AE3" t="n">
-        <v>694297.3724388604</v>
+        <v>756546.7629761179</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.357844683848695e-06</v>
+        <v>4.621342995085103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.868749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>628034.6056657771</v>
+        <v>684343.0017377271</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>476.3439713194958</v>
+        <v>521.8397931315521</v>
       </c>
       <c r="AB4" t="n">
-        <v>651.7548363721985</v>
+        <v>714.0042269094561</v>
       </c>
       <c r="AC4" t="n">
-        <v>589.5522695324933</v>
+        <v>645.8606656044431</v>
       </c>
       <c r="AD4" t="n">
-        <v>476343.9713194958</v>
+        <v>521839.7931315522</v>
       </c>
       <c r="AE4" t="n">
-        <v>651754.8363721985</v>
+        <v>714004.2269094561</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.429680890913988e-06</v>
+        <v>4.762140968161423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>589552.2695324932</v>
+        <v>645860.6656044431</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1374.242386133091</v>
+        <v>1443.947057528527</v>
       </c>
       <c r="AB2" t="n">
-        <v>1880.299060002512</v>
+        <v>1975.672066558815</v>
       </c>
       <c r="AC2" t="n">
-        <v>1700.845956732177</v>
+        <v>1787.116697399602</v>
       </c>
       <c r="AD2" t="n">
-        <v>1374242.386133092</v>
+        <v>1443947.057528527</v>
       </c>
       <c r="AE2" t="n">
-        <v>1880299.060002512</v>
+        <v>1975672.066558815</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.409836304939231e-06</v>
+        <v>2.710696607547651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.25729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1700845.956732177</v>
+        <v>1787116.697399602</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.6247737691338</v>
+        <v>640.5624950756985</v>
       </c>
       <c r="AB3" t="n">
-        <v>828.6425337502667</v>
+        <v>876.4458653853902</v>
       </c>
       <c r="AC3" t="n">
-        <v>749.5580533362411</v>
+        <v>792.7991020925057</v>
       </c>
       <c r="AD3" t="n">
-        <v>605624.7737691337</v>
+        <v>640562.4950756985</v>
       </c>
       <c r="AE3" t="n">
-        <v>828642.5337502667</v>
+        <v>876445.8653853902</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.208753700995135e-06</v>
+        <v>4.246777546598859e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.185416666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>749558.053336241</v>
+        <v>792799.1020925057</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.0001283210676</v>
+        <v>529.023100973653</v>
       </c>
       <c r="AB4" t="n">
-        <v>675.9127693164216</v>
+        <v>723.8327456041942</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.4046032623914</v>
+        <v>654.7511642693681</v>
       </c>
       <c r="AD4" t="n">
-        <v>494000.1283210676</v>
+        <v>529023.1009736529</v>
       </c>
       <c r="AE4" t="n">
-        <v>675912.7693164216</v>
+        <v>723832.7456041942</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.413358213371771e-06</v>
+        <v>4.640171272980586e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.576041666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>611404.6032623914</v>
+        <v>654751.1642693682</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>494.8872309039088</v>
+        <v>529.9102035564943</v>
       </c>
       <c r="AB5" t="n">
-        <v>677.1265422064688</v>
+        <v>725.0465184942414</v>
       </c>
       <c r="AC5" t="n">
-        <v>612.5025353713535</v>
+        <v>655.8490963783303</v>
       </c>
       <c r="AD5" t="n">
-        <v>494887.2309039088</v>
+        <v>529910.2035564942</v>
       </c>
       <c r="AE5" t="n">
-        <v>677126.5422064688</v>
+        <v>725046.5184942414</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.416405190473433e-06</v>
+        <v>4.646029705242414e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.567708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>612502.5353713535</v>
+        <v>655849.0963783303</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2281.078472515997</v>
+        <v>2365.643209245563</v>
       </c>
       <c r="AB2" t="n">
-        <v>3121.072200176377</v>
+        <v>3236.777403702657</v>
       </c>
       <c r="AC2" t="n">
-        <v>2823.20144984377</v>
+        <v>2927.863911138772</v>
       </c>
       <c r="AD2" t="n">
-        <v>2281078.472515997</v>
+        <v>2365643.209245563</v>
       </c>
       <c r="AE2" t="n">
-        <v>3121072.200176376</v>
+        <v>3236777.403702658</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.074793075514268e-06</v>
+        <v>2.002257980471511e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.25208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2823201.44984377</v>
+        <v>2927863.911138772</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>801.6670654901469</v>
+        <v>850.0384872476251</v>
       </c>
       <c r="AB3" t="n">
-        <v>1096.876246058468</v>
+        <v>1163.060159303567</v>
       </c>
       <c r="AC3" t="n">
-        <v>992.1919166101271</v>
+        <v>1052.05933006482</v>
       </c>
       <c r="AD3" t="n">
-        <v>801667.0654901469</v>
+        <v>850038.4872476251</v>
       </c>
       <c r="AE3" t="n">
-        <v>1096876.246058468</v>
+        <v>1163060.159303567</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.936068632127631e-06</v>
+        <v>3.606749017770955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.912499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>992191.9166101271</v>
+        <v>1052059.33006482</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>592.7718587757157</v>
+        <v>641.0579396786223</v>
       </c>
       <c r="AB4" t="n">
-        <v>811.0566084256818</v>
+        <v>877.1237545485836</v>
       </c>
       <c r="AC4" t="n">
-        <v>733.6505040426333</v>
+        <v>793.4122944653873</v>
       </c>
       <c r="AD4" t="n">
-        <v>592771.8587757157</v>
+        <v>641057.9396786223</v>
       </c>
       <c r="AE4" t="n">
-        <v>811056.6084256818</v>
+        <v>877123.7545485836</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.258844771237471e-06</v>
+        <v>4.208056483516607e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>733650.5040426333</v>
+        <v>793412.2944653872</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.6002757657224</v>
+        <v>562.7935907378104</v>
       </c>
       <c r="AB5" t="n">
-        <v>720.5177292671992</v>
+        <v>770.0390195483745</v>
       </c>
       <c r="AC5" t="n">
-        <v>651.7525284389214</v>
+        <v>696.5475762792289</v>
       </c>
       <c r="AD5" t="n">
-        <v>526600.2757657224</v>
+        <v>562793.5907378104</v>
       </c>
       <c r="AE5" t="n">
-        <v>720517.7292671992</v>
+        <v>770039.0195483746</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.380455644605962e-06</v>
+        <v>4.434608316852213e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.434375</v>
       </c>
       <c r="AH5" t="n">
-        <v>651752.5284389214</v>
+        <v>696547.5762792289</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>527.6617169988679</v>
+        <v>563.8550319709558</v>
       </c>
       <c r="AB6" t="n">
-        <v>721.970039989871</v>
+        <v>771.4913302710464</v>
       </c>
       <c r="AC6" t="n">
-        <v>653.0662326645522</v>
+        <v>697.8612805048597</v>
       </c>
       <c r="AD6" t="n">
-        <v>527661.7169988678</v>
+        <v>563855.0319709558</v>
       </c>
       <c r="AE6" t="n">
-        <v>721970.039989871</v>
+        <v>771491.3302710464</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.383690758528703e-06</v>
+        <v>4.440635088718456e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.426041666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>653066.2326645522</v>
+        <v>697861.2805048596</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>830.1120679254466</v>
+        <v>874.5940913904337</v>
       </c>
       <c r="AB2" t="n">
-        <v>1135.795953295385</v>
+        <v>1196.658220208556</v>
       </c>
       <c r="AC2" t="n">
-        <v>1027.397181612505</v>
+        <v>1082.450839192211</v>
       </c>
       <c r="AD2" t="n">
-        <v>830112.0679254466</v>
+        <v>874594.0913904337</v>
       </c>
       <c r="AE2" t="n">
-        <v>1135795.953295385</v>
+        <v>1196658.220208556</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.822333461544564e-06</v>
+        <v>3.652862603529124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1027397.181612505</v>
+        <v>1082450.839192211</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>463.8717493878926</v>
+        <v>508.2683424897572</v>
       </c>
       <c r="AB3" t="n">
-        <v>634.6897920897812</v>
+        <v>695.4351694112061</v>
       </c>
       <c r="AC3" t="n">
-        <v>574.1158891254497</v>
+        <v>629.0638128919903</v>
       </c>
       <c r="AD3" t="n">
-        <v>463871.7493878927</v>
+        <v>508268.3424897572</v>
       </c>
       <c r="AE3" t="n">
-        <v>634689.7920897813</v>
+        <v>695435.169411206</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.426225021564045e-06</v>
+        <v>4.863361638273475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.830208333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>574115.8891254497</v>
+        <v>629063.8128919903</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>464.1560850276144</v>
+        <v>508.552678129479</v>
       </c>
       <c r="AB4" t="n">
-        <v>635.0788326560516</v>
+        <v>695.8242099774766</v>
       </c>
       <c r="AC4" t="n">
-        <v>574.4678002060971</v>
+        <v>629.4157239726378</v>
       </c>
       <c r="AD4" t="n">
-        <v>464156.0850276144</v>
+        <v>508552.678129479</v>
       </c>
       <c r="AE4" t="n">
-        <v>635078.8326560516</v>
+        <v>695824.2099774766</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.431474869161686e-06</v>
+        <v>4.873884943896912e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.815625000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>574467.8002060971</v>
+        <v>629415.7239726378</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>528.0190996442535</v>
+        <v>570.6000956717417</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.4590266918973</v>
+        <v>780.7202239976705</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.508551162034</v>
+        <v>706.2093815670485</v>
       </c>
       <c r="AD2" t="n">
-        <v>528019.0996442535</v>
+        <v>570600.0956717416</v>
       </c>
       <c r="AE2" t="n">
-        <v>722459.0266918973</v>
+        <v>780720.2239976705</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.223731999980423e-06</v>
+        <v>4.65218641152615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.762499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>653508.551162034</v>
+        <v>706209.3815670485</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>458.1645868000825</v>
+        <v>490.1004233292497</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.8810004548961</v>
+        <v>670.5770209037743</v>
       </c>
       <c r="AC3" t="n">
-        <v>567.05235760449</v>
+        <v>606.5780911894773</v>
       </c>
       <c r="AD3" t="n">
-        <v>458164.5868000825</v>
+        <v>490100.4233292497</v>
       </c>
       <c r="AE3" t="n">
-        <v>626881.0004548961</v>
+        <v>670577.0209037743</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.401047242545373e-06</v>
+        <v>5.023140987897934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.189583333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>567052.35760449</v>
+        <v>606578.0911894772</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>453.7337108752604</v>
+        <v>494.7952516868364</v>
       </c>
       <c r="AB2" t="n">
-        <v>620.8184805381046</v>
+        <v>677.0006921838337</v>
       </c>
       <c r="AC2" t="n">
-        <v>561.568436079757</v>
+        <v>612.3886962982469</v>
       </c>
       <c r="AD2" t="n">
-        <v>453733.7108752604</v>
+        <v>494795.2516868364</v>
       </c>
       <c r="AE2" t="n">
-        <v>620818.4805381047</v>
+        <v>677000.6921838337</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.327262052948178e-06</v>
+        <v>5.059132041770233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.672916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>561568.4360797571</v>
+        <v>612388.696298247</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.2512475712068</v>
+        <v>496.3127883827829</v>
       </c>
       <c r="AB3" t="n">
-        <v>622.8948411944924</v>
+        <v>679.0770528402214</v>
       </c>
       <c r="AC3" t="n">
-        <v>563.4466317892898</v>
+        <v>614.2668920077797</v>
       </c>
       <c r="AD3" t="n">
-        <v>455251.2475712068</v>
+        <v>496312.7883827828</v>
       </c>
       <c r="AE3" t="n">
-        <v>622894.8411944924</v>
+        <v>679077.0528402214</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.332747644116e-06</v>
+        <v>5.071056925781478e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.654166666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>563446.6317892898</v>
+        <v>614266.8920077797</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>500.5661323589839</v>
+        <v>548.1280190641867</v>
       </c>
       <c r="AB2" t="n">
-        <v>684.8966657127527</v>
+        <v>749.9729373851633</v>
       </c>
       <c r="AC2" t="n">
-        <v>619.5310891956344</v>
+        <v>678.3965728347511</v>
       </c>
       <c r="AD2" t="n">
-        <v>500566.1323589839</v>
+        <v>548128.0190641867</v>
       </c>
       <c r="AE2" t="n">
-        <v>684896.6657127527</v>
+        <v>749972.9373851633</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.007526043769029e-06</v>
+        <v>4.774954825079422e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>619531.0891956345</v>
+        <v>678396.5728347511</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1213.673690813747</v>
+        <v>1282.727887766097</v>
       </c>
       <c r="AB2" t="n">
-        <v>1660.601887275697</v>
+        <v>1755.084886002063</v>
       </c>
       <c r="AC2" t="n">
-        <v>1502.116373823491</v>
+        <v>1587.582047759134</v>
       </c>
       <c r="AD2" t="n">
-        <v>1213673.690813747</v>
+        <v>1282727.887766097</v>
       </c>
       <c r="AE2" t="n">
-        <v>1660601.887275697</v>
+        <v>1755084.886002063</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501153133491747e-06</v>
+        <v>2.91310503819255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.678125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1502116.373823491</v>
+        <v>1587582.047759134</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.5862927082234</v>
+        <v>592.1561511202351</v>
       </c>
       <c r="AB3" t="n">
-        <v>762.914164654518</v>
+        <v>810.2141700483484</v>
       </c>
       <c r="AC3" t="n">
-        <v>690.1027075366451</v>
+        <v>732.888466801663</v>
       </c>
       <c r="AD3" t="n">
-        <v>557586.2927082233</v>
+        <v>592156.1511202351</v>
       </c>
       <c r="AE3" t="n">
-        <v>762914.164654518</v>
+        <v>810214.1700483484</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.289273915548403e-06</v>
+        <v>4.442515042868877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.001041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>690102.7075366451</v>
+        <v>732888.4668016629</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>485.3290669197403</v>
+        <v>531.3367512697829</v>
       </c>
       <c r="AB4" t="n">
-        <v>664.0486405668948</v>
+        <v>726.9983840104065</v>
       </c>
       <c r="AC4" t="n">
-        <v>600.6727703093102</v>
+        <v>657.614678589093</v>
       </c>
       <c r="AD4" t="n">
-        <v>485329.0669197403</v>
+        <v>531336.7512697829</v>
       </c>
       <c r="AE4" t="n">
-        <v>664048.6405668949</v>
+        <v>726998.3840104066</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.42129414807566e-06</v>
+        <v>4.698710627408566e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.619791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>600672.7703093102</v>
+        <v>657614.678589093</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>487.4252596421125</v>
+        <v>533.4329439921552</v>
       </c>
       <c r="AB5" t="n">
-        <v>666.9167439271406</v>
+        <v>729.8664873706524</v>
       </c>
       <c r="AC5" t="n">
-        <v>603.2671459102625</v>
+        <v>660.2090541900452</v>
       </c>
       <c r="AD5" t="n">
-        <v>487425.2596421125</v>
+        <v>533432.9439921551</v>
       </c>
       <c r="AE5" t="n">
-        <v>666916.7439271406</v>
+        <v>729866.4873706524</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.421755757280301e-06</v>
+        <v>4.699606416165698e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.618749999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>603267.1459102625</v>
+        <v>660209.0541900452</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2002.190565995809</v>
+        <v>2085.927788724088</v>
       </c>
       <c r="AB2" t="n">
-        <v>2739.48546280919</v>
+        <v>2854.058425171562</v>
       </c>
       <c r="AC2" t="n">
-        <v>2478.032815130675</v>
+        <v>2581.671094769345</v>
       </c>
       <c r="AD2" t="n">
-        <v>2002190.565995809</v>
+        <v>2085927.788724088</v>
       </c>
       <c r="AE2" t="n">
-        <v>2739485.46280919</v>
+        <v>2854058.425171562</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.152828584485431e-06</v>
+        <v>2.163158597579155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.39791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2478032.815130675</v>
+        <v>2581671.094769346</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>751.784780463357</v>
+        <v>799.7321032798549</v>
       </c>
       <c r="AB3" t="n">
-        <v>1028.625103033713</v>
+        <v>1094.228745397838</v>
       </c>
       <c r="AC3" t="n">
-        <v>930.4545668845735</v>
+        <v>989.7970896967574</v>
       </c>
       <c r="AD3" t="n">
-        <v>751784.780463357</v>
+        <v>799732.1032798549</v>
       </c>
       <c r="AE3" t="n">
-        <v>1028625.103033712</v>
+        <v>1094228.745397838</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.99843391147198e-06</v>
+        <v>3.74984586214429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.728124999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>930454.5668845735</v>
+        <v>989797.0896967575</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>558.0720062697566</v>
+        <v>605.9339882316826</v>
       </c>
       <c r="AB4" t="n">
-        <v>763.5787393775778</v>
+        <v>829.0656146195057</v>
       </c>
       <c r="AC4" t="n">
-        <v>690.7038561808727</v>
+        <v>749.9407559611176</v>
       </c>
       <c r="AD4" t="n">
-        <v>558072.0062697566</v>
+        <v>605933.9882316827</v>
       </c>
       <c r="AE4" t="n">
-        <v>763578.7393775778</v>
+        <v>829065.6146195057</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.313960500254616e-06</v>
+        <v>4.341897501455987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.675</v>
       </c>
       <c r="AH4" t="n">
-        <v>690703.8561808727</v>
+        <v>749940.7559611176</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>516.4648124423883</v>
+        <v>552.3400532087411</v>
       </c>
       <c r="AB5" t="n">
-        <v>706.6499412031297</v>
+        <v>755.7360283235745</v>
       </c>
       <c r="AC5" t="n">
-        <v>639.2082626041237</v>
+        <v>683.6096424625492</v>
       </c>
       <c r="AD5" t="n">
-        <v>516464.8124423883</v>
+        <v>552340.0532087411</v>
       </c>
       <c r="AE5" t="n">
-        <v>706649.9412031297</v>
+        <v>755736.0283235745</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.393880063860744e-06</v>
+        <v>4.49185794957112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.452083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>639208.2626041237</v>
+        <v>683609.6424625493</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>518.8539485416514</v>
+        <v>554.7291893080043</v>
       </c>
       <c r="AB6" t="n">
-        <v>709.9188626153874</v>
+        <v>759.0049497358322</v>
       </c>
       <c r="AC6" t="n">
-        <v>642.1652027447556</v>
+        <v>686.5665826031811</v>
       </c>
       <c r="AD6" t="n">
-        <v>518853.9485416514</v>
+        <v>554729.1893080042</v>
       </c>
       <c r="AE6" t="n">
-        <v>709918.8626153874</v>
+        <v>759004.9497358322</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.393880063860744e-06</v>
+        <v>4.49185794957112e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.452083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>642165.2027447555</v>
+        <v>686566.5826031811</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.8476271460804</v>
+        <v>622.8087849254806</v>
       </c>
       <c r="AB2" t="n">
-        <v>776.9541751305193</v>
+        <v>852.1544559194483</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.8027591180957</v>
+        <v>770.826030652786</v>
       </c>
       <c r="AD2" t="n">
-        <v>567847.6271460804</v>
+        <v>622808.7849254806</v>
       </c>
       <c r="AE2" t="n">
-        <v>776954.1751305193</v>
+        <v>852154.4559194483</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708611269100411e-06</v>
+        <v>4.273107118311118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>702802.7591180956</v>
+        <v>770826.030652786</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.5260677864253</v>
+        <v>663.6966043377765</v>
       </c>
       <c r="AB2" t="n">
-        <v>849.0311416234201</v>
+        <v>908.0989742826351</v>
       </c>
       <c r="AC2" t="n">
-        <v>768.0008010895718</v>
+        <v>821.4312827020149</v>
       </c>
       <c r="AD2" t="n">
-        <v>620526.0677864254</v>
+        <v>663696.6043377765</v>
       </c>
       <c r="AE2" t="n">
-        <v>849031.1416234202</v>
+        <v>908098.9742826351</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.085664338807144e-06</v>
+        <v>4.2949740720946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.155208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>768000.8010895718</v>
+        <v>821431.2827020149</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.8715516600515</v>
+        <v>494.3134820916313</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.9530333160531</v>
+        <v>676.3415137694994</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.6403227680212</v>
+        <v>611.7924289466142</v>
       </c>
       <c r="AD3" t="n">
-        <v>461871.5516600515</v>
+        <v>494313.4820916313</v>
       </c>
       <c r="AE3" t="n">
-        <v>631953.0333160531</v>
+        <v>676341.5137694995</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.41846921842576e-06</v>
+        <v>4.980313655474556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.033333333333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>571640.3227680211</v>
+        <v>611792.4289466143</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>940.8071446789422</v>
+        <v>997.1136813228102</v>
       </c>
       <c r="AB2" t="n">
-        <v>1287.253840831643</v>
+        <v>1364.294928336863</v>
       </c>
       <c r="AC2" t="n">
-        <v>1164.400140934783</v>
+        <v>1234.08853517635</v>
       </c>
       <c r="AD2" t="n">
-        <v>940807.1446789423</v>
+        <v>997113.6813228101</v>
       </c>
       <c r="AE2" t="n">
-        <v>1287253.840831643</v>
+        <v>1364294.928336862</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708381333663929e-06</v>
+        <v>3.384617955121334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.586458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1164400.140934783</v>
+        <v>1234088.53517635</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>478.3100467432182</v>
+        <v>523.2699352037408</v>
       </c>
       <c r="AB3" t="n">
-        <v>654.4449075040617</v>
+        <v>715.9610103860399</v>
       </c>
       <c r="AC3" t="n">
-        <v>591.9856040510698</v>
+        <v>647.6306964123846</v>
       </c>
       <c r="AD3" t="n">
-        <v>478310.0467432182</v>
+        <v>523269.9352037408</v>
       </c>
       <c r="AE3" t="n">
-        <v>654444.9075040617</v>
+        <v>715961.0103860399</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406921575286315e-06</v>
+        <v>4.768554783264541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.804166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>591985.6040510698</v>
+        <v>647630.6964123846</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>471.0118935188056</v>
+        <v>515.9717819793282</v>
       </c>
       <c r="AB4" t="n">
-        <v>644.4592522906237</v>
+        <v>705.9753551726019</v>
       </c>
       <c r="AC4" t="n">
-        <v>582.9529657562473</v>
+        <v>638.598058117562</v>
       </c>
       <c r="AD4" t="n">
-        <v>471011.8935188056</v>
+        <v>515971.7819793282</v>
       </c>
       <c r="AE4" t="n">
-        <v>644459.2522906237</v>
+        <v>705975.3551726019</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.430504973045342e-06</v>
+        <v>4.81527783620658e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.738541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>582952.9657562473</v>
+        <v>638598.058117562</v>
       </c>
     </row>
   </sheetData>
